--- a/ccf.xlsx
+++ b/ccf.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -416,7 +416,7 @@
         <v>0.53766713954610001</v>
       </c>
       <c r="B2">
-        <v>0.53766713954610001</v>
+        <v>-1.3499000000000001</v>
       </c>
       <c r="D2">
         <v>-3</v>
@@ -430,7 +430,7 @@
         <v>1.83388501459509</v>
       </c>
       <c r="B3">
-        <v>1.83388501459509</v>
+        <v>3.0348999999999999</v>
       </c>
       <c r="D3">
         <v>-2</v>
@@ -444,7 +444,7 @@
         <v>-2.2588468610036498</v>
       </c>
       <c r="B4">
-        <v>-2.2588468610036498</v>
+        <v>0.72540000000000004</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -458,7 +458,7 @@
         <v>0.862173320368121</v>
       </c>
       <c r="B5">
-        <v>0.862173320368121</v>
+        <v>-6.3100000000000003E-2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>0.31876523985898098</v>
       </c>
       <c r="B6">
-        <v>0.31876523985898098</v>
+        <v>0.7147</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>-1.3076882963052701</v>
       </c>
       <c r="B7">
-        <v>-1.3076882963052701</v>
+        <v>-0.20499999999999999</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -500,7 +500,7 @@
         <v>-0.433592022305684</v>
       </c>
       <c r="B8">
-        <v>-0.433592022305684</v>
+        <v>-0.1241</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -514,7 +514,7 @@
         <v>0.34262446653864997</v>
       </c>
       <c r="B9">
-        <v>0.34262446653864997</v>
+        <v>1.4897</v>
       </c>
       <c r="E9">
         <v>9.75</v>
@@ -525,7 +525,7 @@
         <v>3.57839693972576</v>
       </c>
       <c r="B10">
-        <v>3.57839693972576</v>
+        <v>1.409</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -533,7 +533,7 @@
         <v>2.7694370298848798</v>
       </c>
       <c r="B11">
-        <v>2.7694370298848798</v>
+        <v>1.4172</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
